--- a/HoI2Editor/Documents/Design/commands.xlsx
+++ b/HoI2Editor/Documents/Design/commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="989">
   <si>
     <t>trigger</t>
     <phoneticPr fontId="1"/>
@@ -3942,6 +3942,18 @@
   </si>
   <si>
     <t>Stockpile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub_detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubDetection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4288,11 +4300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H282"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7463,44 +7475,47 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>479</v>
+        <v>986</v>
       </c>
       <c r="B228" t="s">
-        <v>480</v>
+        <v>987</v>
       </c>
       <c r="C228" t="s">
-        <v>481</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>979</v>
+        <v>211</v>
+      </c>
+      <c r="E228" t="s">
+        <v>988</v>
       </c>
       <c r="G228" t="s">
-        <v>789</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B229" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C229" t="s">
         <v>481</v>
       </c>
       <c r="D229" t="s">
-        <v>484</v>
+        <v>979</v>
       </c>
       <c r="G229" t="s">
-        <v>487</v>
+        <v>789</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B230" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C230" t="s">
         <v>481</v>
@@ -7514,16 +7529,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B231" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C231" t="s">
         <v>481</v>
       </c>
-      <c r="F231" t="s">
-        <v>642</v>
+      <c r="D231" t="s">
+        <v>484</v>
       </c>
       <c r="G231" t="s">
         <v>487</v>
@@ -7531,16 +7546,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B232" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C232" t="s">
-        <v>492</v>
-      </c>
-      <c r="D232" t="s">
-        <v>979</v>
+        <v>481</v>
+      </c>
+      <c r="F232" t="s">
+        <v>642</v>
       </c>
       <c r="G232" t="s">
         <v>487</v>
@@ -7548,10 +7563,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B233" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C233" t="s">
         <v>492</v>
@@ -7565,16 +7580,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B234" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C234" t="s">
         <v>492</v>
       </c>
       <c r="D234" t="s">
-        <v>497</v>
+        <v>979</v>
       </c>
       <c r="G234" t="s">
         <v>487</v>
@@ -7582,10 +7597,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B235" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C235" t="s">
         <v>492</v>
@@ -7599,16 +7614,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B236" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C236" t="s">
         <v>492</v>
       </c>
-      <c r="F236" t="s">
-        <v>642</v>
+      <c r="D236" t="s">
+        <v>497</v>
       </c>
       <c r="G236" t="s">
         <v>487</v>
@@ -7616,19 +7631,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B237" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C237" t="s">
-        <v>121</v>
-      </c>
-      <c r="D237" t="s">
-        <v>215</v>
+        <v>492</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>642</v>
       </c>
       <c r="G237" t="s">
         <v>487</v>
@@ -7636,16 +7648,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B238" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C238" t="s">
         <v>121</v>
       </c>
       <c r="D238" t="s">
-        <v>642</v>
+        <v>215</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
       </c>
       <c r="G238" t="s">
         <v>487</v>
@@ -7653,16 +7668,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B239" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C239" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="D239" t="s">
-        <v>215</v>
+        <v>642</v>
       </c>
       <c r="G239" t="s">
         <v>487</v>
@@ -7670,10 +7685,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B240" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C240" t="s">
         <v>214</v>
@@ -7687,16 +7702,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B241" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C241" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="D241" t="s">
-        <v>979</v>
+        <v>215</v>
       </c>
       <c r="G241" t="s">
         <v>487</v>
@@ -7704,10 +7719,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B242" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C242" t="s">
         <v>121</v>
@@ -7721,13 +7736,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B243" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C243" t="s">
-        <v>481</v>
+        <v>121</v>
       </c>
       <c r="D243" t="s">
         <v>979</v>
@@ -7738,10 +7753,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B244" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C244" t="s">
         <v>481</v>
@@ -7755,10 +7770,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B245" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+      <c r="C245" t="s">
+        <v>481</v>
       </c>
       <c r="D245" t="s">
         <v>979</v>
@@ -7769,10 +7787,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B246" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D246" t="s">
         <v>979</v>
@@ -7783,13 +7801,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B247" t="s">
-        <v>526</v>
-      </c>
-      <c r="C247" t="s">
-        <v>642</v>
+        <v>524</v>
+      </c>
+      <c r="D247" t="s">
+        <v>979</v>
       </c>
       <c r="G247" t="s">
         <v>487</v>
@@ -7797,10 +7815,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B248" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C248" t="s">
         <v>642</v>
@@ -7811,47 +7829,41 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="B249" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C249" t="s">
-        <v>170</v>
-      </c>
-      <c r="D249" t="s">
-        <v>215</v>
+        <v>642</v>
       </c>
       <c r="G249" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="B250" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C250" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D250" t="s">
         <v>215</v>
       </c>
-      <c r="F250" t="s">
-        <v>10</v>
-      </c>
       <c r="G250" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B251" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C251" t="s">
         <v>121</v>
@@ -7868,10 +7880,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B252" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C252" t="s">
         <v>121</v>
@@ -7888,10 +7900,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B253" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C253" t="s">
         <v>121</v>
@@ -7908,47 +7920,53 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B254" t="s">
-        <v>545</v>
+        <v>541</v>
+      </c>
+      <c r="C254" t="s">
+        <v>121</v>
       </c>
       <c r="D254" t="s">
         <v>215</v>
       </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
       <c r="G254" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>909</v>
+        <v>546</v>
       </c>
       <c r="B255" t="s">
-        <v>957</v>
-      </c>
-      <c r="C255" t="s">
-        <v>979</v>
-      </c>
-      <c r="E255" t="s">
-        <v>979</v>
-      </c>
-      <c r="F255" t="s">
-        <v>642</v>
+        <v>545</v>
+      </c>
+      <c r="D255" t="s">
+        <v>215</v>
       </c>
       <c r="G255" t="s">
-        <v>912</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>940</v>
+        <v>909</v>
       </c>
       <c r="B256" t="s">
-        <v>913</v>
+        <v>957</v>
       </c>
       <c r="C256" t="s">
         <v>979</v>
+      </c>
+      <c r="E256" t="s">
+        <v>979</v>
+      </c>
+      <c r="F256" t="s">
+        <v>642</v>
       </c>
       <c r="G256" t="s">
         <v>912</v>
@@ -7956,16 +7974,13 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B257" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="C257" t="s">
-        <v>914</v>
-      </c>
-      <c r="F257" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="G257" t="s">
         <v>912</v>
@@ -7973,13 +7988,13 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B258" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C258" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F258" t="s">
         <v>642</v>
@@ -7990,30 +8005,36 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B259" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C259" t="s">
-        <v>916</v>
-      </c>
-      <c r="D259" t="s">
-        <v>979</v>
-      </c>
-      <c r="E259" t="s">
-        <v>917</v>
+        <v>915</v>
+      </c>
+      <c r="F259" t="s">
+        <v>642</v>
       </c>
       <c r="G259" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B260" t="s">
-        <v>918</v>
+        <v>960</v>
+      </c>
+      <c r="C260" t="s">
+        <v>916</v>
+      </c>
+      <c r="D260" t="s">
+        <v>979</v>
+      </c>
+      <c r="E260" t="s">
+        <v>917</v>
       </c>
       <c r="G260" t="s">
         <v>920</v>
@@ -8021,55 +8042,49 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>919</v>
+        <v>944</v>
       </c>
       <c r="B261" t="s">
-        <v>961</v>
-      </c>
-      <c r="C261" t="s">
-        <v>642</v>
-      </c>
-      <c r="D261" t="s">
-        <v>979</v>
-      </c>
-      <c r="E261" t="s">
-        <v>979</v>
-      </c>
-      <c r="F261" t="s">
-        <v>642</v>
+        <v>918</v>
       </c>
       <c r="G261" t="s">
         <v>920</v>
       </c>
-      <c r="H261" t="s">
-        <v>921</v>
-      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="B262" t="s">
-        <v>962</v>
+        <v>961</v>
+      </c>
+      <c r="C262" t="s">
+        <v>642</v>
       </c>
       <c r="D262" t="s">
         <v>979</v>
+      </c>
+      <c r="E262" t="s">
+        <v>979</v>
+      </c>
+      <c r="F262" t="s">
+        <v>642</v>
       </c>
       <c r="G262" t="s">
         <v>920</v>
       </c>
+      <c r="H262" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B263" t="s">
-        <v>963</v>
-      </c>
-      <c r="C263" t="s">
-        <v>642</v>
-      </c>
-      <c r="F263" t="s">
+        <v>962</v>
+      </c>
+      <c r="D263" t="s">
         <v>979</v>
       </c>
       <c r="G263" t="s">
@@ -8078,13 +8093,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B264" t="s">
-        <v>923</v>
+        <v>963</v>
       </c>
       <c r="C264" t="s">
-        <v>914</v>
+        <v>642</v>
       </c>
       <c r="F264" t="s">
         <v>979</v>
@@ -8095,19 +8110,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B265" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C265" t="s">
-        <v>642</v>
-      </c>
-      <c r="D265" t="s">
-        <v>979</v>
+        <v>914</v>
       </c>
       <c r="F265" t="s">
-        <v>642</v>
+        <v>979</v>
       </c>
       <c r="G265" t="s">
         <v>920</v>
@@ -8115,10 +8127,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B266" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="C266" t="s">
         <v>642</v>
@@ -8135,30 +8147,30 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B267" t="s">
-        <v>925</v>
+        <v>964</v>
       </c>
       <c r="C267" t="s">
         <v>642</v>
       </c>
       <c r="D267" t="s">
-        <v>914</v>
-      </c>
-      <c r="E267" t="s">
-        <v>979</v>
+        <v>979</v>
+      </c>
+      <c r="F267" t="s">
+        <v>642</v>
       </c>
       <c r="G267" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B268" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C268" t="s">
         <v>642</v>
@@ -8175,12 +8187,18 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B269" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C269" t="s">
+        <v>642</v>
+      </c>
+      <c r="D269" t="s">
+        <v>914</v>
+      </c>
+      <c r="E269" t="s">
         <v>979</v>
       </c>
       <c r="G269" t="s">
@@ -8189,10 +8207,10 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B270" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C270" t="s">
         <v>979</v>
@@ -8203,84 +8221,72 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B271" t="s">
-        <v>985</v>
+        <v>930</v>
       </c>
       <c r="C271" t="s">
-        <v>914</v>
-      </c>
-      <c r="D271" t="s">
-        <v>979</v>
-      </c>
-      <c r="E271" t="s">
-        <v>931</v>
+        <v>979</v>
       </c>
       <c r="G271" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>540</v>
+        <v>954</v>
       </c>
       <c r="B272" t="s">
-        <v>542</v>
+        <v>985</v>
+      </c>
+      <c r="C272" t="s">
+        <v>914</v>
       </c>
       <c r="D272" t="s">
-        <v>211</v>
+        <v>979</v>
+      </c>
+      <c r="E272" t="s">
+        <v>931</v>
       </c>
       <c r="G272" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B273" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D273" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G273" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>935</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s">
-        <v>965</v>
-      </c>
-      <c r="C274" t="s">
-        <v>914</v>
+        <v>544</v>
       </c>
       <c r="D274" t="s">
-        <v>936</v>
-      </c>
-      <c r="E274" t="s">
-        <v>979</v>
-      </c>
-      <c r="F274" t="s">
-        <v>979</v>
+        <v>215</v>
       </c>
       <c r="G274" t="s">
-        <v>920</v>
-      </c>
-      <c r="H274" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B275" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="C275" t="s">
         <v>914</v>
@@ -8297,33 +8303,39 @@
       <c r="G275" t="s">
         <v>920</v>
       </c>
+      <c r="H275" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B276" t="s">
-        <v>966</v>
+        <v>938</v>
       </c>
       <c r="C276" t="s">
-        <v>10</v>
+        <v>914</v>
       </c>
       <c r="D276" t="s">
-        <v>211</v>
+        <v>936</v>
+      </c>
+      <c r="E276" t="s">
+        <v>979</v>
       </c>
       <c r="F276" t="s">
-        <v>10</v>
+        <v>979</v>
       </c>
       <c r="G276" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B277" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C277" t="s">
         <v>10</v>
@@ -8340,13 +8352,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B278" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C278" t="s">
-        <v>914</v>
+        <v>10</v>
       </c>
       <c r="D278" t="s">
         <v>211</v>
@@ -8360,13 +8372,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B279" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>914</v>
       </c>
       <c r="D279" t="s">
         <v>211</v>
@@ -8380,16 +8392,16 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="B280" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C280" t="s">
-        <v>914</v>
+        <v>10</v>
       </c>
       <c r="D280" t="s">
-        <v>936</v>
+        <v>211</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -8400,16 +8412,16 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B281" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C281" t="s">
-        <v>10</v>
+        <v>914</v>
       </c>
       <c r="D281" t="s">
-        <v>211</v>
+        <v>936</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -8420,10 +8432,10 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B282" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C282" t="s">
         <v>10</v>
@@ -8435,6 +8447,26 @@
         <v>10</v>
       </c>
       <c r="G282" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>974</v>
+      </c>
+      <c r="B283" t="s">
+        <v>976</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>211</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
         <v>908</v>
       </c>
     </row>

--- a/HoI2Editor/Documents/Design/commands.xlsx
+++ b/HoI2Editor/Documents/Design/commands.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
     <sheet name="trigger" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="998">
   <si>
     <t>trigger</t>
     <phoneticPr fontId="1"/>
@@ -3954,6 +3953,42 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remove_units</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RemoveUnits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alliance_leader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllianceLeader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{ 0 | 1 | 2 | 3 | 4 }</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4009,12 +4044,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4056,7 +4094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4091,7 +4129,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4300,11 +4338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8470,6 +8508,29 @@
         <v>908</v>
       </c>
     </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>990</v>
+      </c>
+      <c r="B284" t="s">
+        <v>991</v>
+      </c>
+      <c r="C284" t="s">
+        <v>121</v>
+      </c>
+      <c r="D284" t="s">
+        <v>992</v>
+      </c>
+      <c r="E284" t="s">
+        <v>993</v>
+      </c>
+      <c r="F284" t="s">
+        <v>994</v>
+      </c>
+      <c r="G284" t="s">
+        <v>989</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8479,11 +8540,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10328,22 +10387,26 @@
         <v>907</v>
       </c>
     </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>995</v>
+      </c>
+      <c r="B133" t="s">
+        <v>996</v>
+      </c>
+      <c r="C133" t="s">
+        <v>993</v>
+      </c>
+      <c r="D133" t="s">
+        <v>989</v>
+      </c>
+      <c r="E133" t="s">
+        <v>997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HoI2Editor/Documents/Design/commands.xlsx
+++ b/HoI2Editor/Documents/Design/commands.xlsx
@@ -13,14 +13,14 @@
     <sheet name="項目有無" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">command!$A$1:$P$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">command!$A$1:$P$384</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7629" uniqueCount="1318">
   <si>
     <t>trigger</t>
     <phoneticPr fontId="2"/>
@@ -5129,14 +5129,6 @@
     <rPh sb="29" eb="31">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ground_defense</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GroundDefense</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -5798,14 +5790,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HoI2/AoD</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6248,11 +6232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P297"/>
+  <dimension ref="A1:P296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6311,33 +6295,33 @@
         <v>951</v>
       </c>
       <c r="P1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2" t="s">
+        <v>937</v>
+      </c>
+      <c r="H2" t="s">
+        <v>975</v>
+      </c>
+      <c r="I2" t="s">
         <v>1317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>937</v>
-      </c>
-      <c r="E2" t="s">
-        <v>937</v>
-      </c>
-      <c r="F2" t="s">
-        <v>937</v>
-      </c>
-      <c r="G2" t="s">
-        <v>937</v>
-      </c>
-      <c r="H2" t="s">
-        <v>975</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1319</v>
       </c>
       <c r="J2" t="s">
         <v>975</v>
@@ -7024,13 +7008,13 @@
         <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D17" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E17" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F17" t="s">
         <v>937</v>
@@ -7039,10 +7023,10 @@
         <v>937</v>
       </c>
       <c r="H17" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I17" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J17" t="s">
         <v>975</v>
@@ -7054,16 +7038,16 @@
         <v>952</v>
       </c>
       <c r="M17" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="N17" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="O17" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="P17" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -7356,7 +7340,7 @@
         <v>474</v>
       </c>
       <c r="C24" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D24" t="s">
         <v>967</v>
@@ -7395,7 +7379,7 @@
         <v>975</v>
       </c>
       <c r="P24" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -7406,7 +7390,7 @@
         <v>476</v>
       </c>
       <c r="C25" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D25" t="s">
         <v>967</v>
@@ -7445,7 +7429,7 @@
         <v>975</v>
       </c>
       <c r="P25" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -7456,7 +7440,7 @@
         <v>478</v>
       </c>
       <c r="C26" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D26" t="s">
         <v>776</v>
@@ -7495,7 +7479,7 @@
         <v>975</v>
       </c>
       <c r="P26" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -7506,7 +7490,7 @@
         <v>480</v>
       </c>
       <c r="C27" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D27" t="s">
         <v>776</v>
@@ -7545,7 +7529,7 @@
         <v>975</v>
       </c>
       <c r="P27" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
@@ -7556,7 +7540,7 @@
         <v>482</v>
       </c>
       <c r="C28" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D28" t="s">
         <v>1074</v>
@@ -7595,7 +7579,7 @@
         <v>975</v>
       </c>
       <c r="P28" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
@@ -7606,7 +7590,7 @@
         <v>484</v>
       </c>
       <c r="C29" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D29" t="s">
         <v>1074</v>
@@ -7645,7 +7629,7 @@
         <v>975</v>
       </c>
       <c r="P29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
@@ -7656,7 +7640,7 @@
         <v>486</v>
       </c>
       <c r="C30" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D30" t="s">
         <v>937</v>
@@ -7695,7 +7679,7 @@
         <v>975</v>
       </c>
       <c r="P30" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
@@ -7706,7 +7690,7 @@
         <v>488</v>
       </c>
       <c r="C31" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D31" t="s">
         <v>937</v>
@@ -7745,7 +7729,7 @@
         <v>975</v>
       </c>
       <c r="P31" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -8032,16 +8016,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C38" t="s">
         <v>963</v>
       </c>
       <c r="D38" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E38" t="s">
         <v>937</v>
@@ -8077,7 +8061,7 @@
         <v>975</v>
       </c>
       <c r="P38" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -8411,16 +8395,16 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C46" t="s">
         <v>963</v>
       </c>
       <c r="D46" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E46" t="s">
         <v>937</v>
@@ -8456,7 +8440,7 @@
         <v>975</v>
       </c>
       <c r="P46" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -8741,7 +8725,7 @@
         <v>975</v>
       </c>
       <c r="P52" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
@@ -8791,7 +8775,7 @@
         <v>975</v>
       </c>
       <c r="P53" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
@@ -8802,7 +8786,7 @@
         <v>459</v>
       </c>
       <c r="C54" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D54" t="s">
         <v>1020</v>
@@ -8852,7 +8836,7 @@
         <v>461</v>
       </c>
       <c r="C55" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D55" t="s">
         <v>1020</v>
@@ -8902,13 +8886,13 @@
         <v>463</v>
       </c>
       <c r="C56" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D56" t="s">
         <v>1020</v>
       </c>
       <c r="E56" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F56" t="s">
         <v>937</v>
@@ -8952,13 +8936,13 @@
         <v>465</v>
       </c>
       <c r="C57" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D57" t="s">
         <v>1020</v>
       </c>
       <c r="E57" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F57" t="s">
         <v>937</v>
@@ -9096,7 +9080,7 @@
         <v>467</v>
       </c>
       <c r="C60" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D60" t="s">
         <v>1020</v>
@@ -9243,7 +9227,7 @@
         <v>1071</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E63" t="s">
         <v>937</v>
@@ -9290,7 +9274,7 @@
         <v>457</v>
       </c>
       <c r="C64" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D64" t="s">
         <v>1074</v>
@@ -9329,7 +9313,7 @@
         <v>975</v>
       </c>
       <c r="P64" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
@@ -9387,25 +9371,25 @@
         <v>450</v>
       </c>
       <c r="C66" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F66" t="s">
+        <v>937</v>
+      </c>
+      <c r="G66" t="s">
+        <v>937</v>
+      </c>
+      <c r="H66" t="s">
         <v>1199</v>
       </c>
-      <c r="E66" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F66" t="s">
-        <v>937</v>
-      </c>
-      <c r="G66" t="s">
-        <v>937</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1201</v>
-      </c>
       <c r="I66" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>952</v>
@@ -9437,25 +9421,25 @@
         <v>452</v>
       </c>
       <c r="C67" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D67" t="s">
         <v>1074</v>
       </c>
       <c r="E67" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F67" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G67" t="s">
         <v>937</v>
       </c>
       <c r="H67" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I67" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>952</v>
@@ -9467,13 +9451,13 @@
         <v>952</v>
       </c>
       <c r="M67" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="N67" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="O67" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="P67" t="s">
         <v>455</v>
@@ -9487,25 +9471,25 @@
         <v>454</v>
       </c>
       <c r="C68" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D68" t="s">
         <v>1074</v>
       </c>
       <c r="E68" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F68" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G68" t="s">
         <v>937</v>
       </c>
       <c r="H68" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I68" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>952</v>
@@ -9517,13 +9501,13 @@
         <v>952</v>
       </c>
       <c r="M68" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="N68" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="O68" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="P68" t="s">
         <v>455</v>
@@ -9825,10 +9809,10 @@
         <v>1130</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>1298</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>1300</v>
       </c>
       <c r="F75" t="s">
         <v>937</v>
@@ -9922,7 +9906,7 @@
         <v>1080</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>1078</v>
@@ -9969,7 +9953,7 @@
         <v>1080</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>1078</v>
@@ -10956,7 +10940,7 @@
         <v>1036</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E99" t="s">
         <v>1026</v>
@@ -11050,7 +11034,7 @@
         <v>1036</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E101" t="s">
         <v>1026</v>
@@ -12487,7 +12471,7 @@
         <v>226</v>
       </c>
       <c r="C131" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D131" t="s">
         <v>1111</v>
@@ -12584,7 +12568,7 @@
         <v>980</v>
       </c>
       <c r="D133" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E133" t="s">
         <v>1026</v>
@@ -14033,7 +14017,7 @@
         <v>1169</v>
       </c>
       <c r="P163" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.15">
@@ -14047,7 +14031,7 @@
         <v>1162</v>
       </c>
       <c r="D164" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E164" t="s">
         <v>1026</v>
@@ -14083,7 +14067,7 @@
         <v>1169</v>
       </c>
       <c r="P164" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
@@ -14097,7 +14081,7 @@
         <v>1162</v>
       </c>
       <c r="D165" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E165" t="s">
         <v>1026</v>
@@ -14133,7 +14117,7 @@
         <v>1169</v>
       </c>
       <c r="P165" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.15">
@@ -14268,30 +14252,27 @@
         <v>952</v>
       </c>
       <c r="M168" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="N168" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="O168" t="s">
-        <v>975</v>
-      </c>
-      <c r="P168" t="s">
-        <v>1321</v>
+        <v>952</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>1183</v>
+      <c r="A169" t="s">
+        <v>295</v>
+      </c>
+      <c r="B169" t="s">
+        <v>296</v>
       </c>
       <c r="C169" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D169" t="s">
         <v>1031</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1160</v>
       </c>
       <c r="E169" t="s">
         <v>1026</v>
@@ -14303,39 +14284,36 @@
         <v>937</v>
       </c>
       <c r="H169" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="I169" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="J169" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="K169" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="L169" t="s">
-        <v>975</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="P169" t="s">
-        <v>1320</v>
+        <v>952</v>
+      </c>
+      <c r="M169" t="s">
+        <v>952</v>
+      </c>
+      <c r="N169" t="s">
+        <v>952</v>
+      </c>
+      <c r="O169" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C170" t="s">
         <v>1162</v>
@@ -14379,10 +14357,10 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C171" t="s">
         <v>1162</v>
@@ -14393,11 +14371,11 @@
       <c r="E171" t="s">
         <v>1026</v>
       </c>
-      <c r="F171" t="s">
-        <v>937</v>
+      <c r="F171" s="2" t="s">
+        <v>1284</v>
       </c>
       <c r="G171" t="s">
-        <v>937</v>
+        <v>1193</v>
       </c>
       <c r="H171" t="s">
         <v>952</v>
@@ -14426,10 +14404,10 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C172" t="s">
         <v>1162</v>
@@ -14441,10 +14419,10 @@
         <v>1026</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G172" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="H172" t="s">
         <v>952</v>
@@ -14473,10 +14451,10 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C173" t="s">
         <v>1162</v>
@@ -14487,11 +14465,11 @@
       <c r="E173" t="s">
         <v>1026</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>1286</v>
+      <c r="F173" t="s">
+        <v>937</v>
       </c>
       <c r="G173" t="s">
-        <v>1195</v>
+        <v>937</v>
       </c>
       <c r="H173" t="s">
         <v>952</v>
@@ -14520,10 +14498,10 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B174" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C174" t="s">
         <v>1162</v>
@@ -14567,10 +14545,10 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C175" t="s">
         <v>1162</v>
@@ -14613,68 +14591,71 @@
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
-        <v>307</v>
-      </c>
-      <c r="B176" t="s">
-        <v>308</v>
+      <c r="A176" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="C176" t="s">
-        <v>1162</v>
+        <v>1307</v>
       </c>
       <c r="D176" t="s">
         <v>1031</v>
       </c>
       <c r="E176" t="s">
+        <v>202</v>
+      </c>
+      <c r="F176" t="s">
+        <v>937</v>
+      </c>
+      <c r="G176" t="s">
+        <v>937</v>
+      </c>
+      <c r="H176" t="s">
+        <v>952</v>
+      </c>
+      <c r="I176" t="s">
+        <v>952</v>
+      </c>
+      <c r="J176" t="s">
+        <v>952</v>
+      </c>
+      <c r="K176" t="s">
+        <v>952</v>
+      </c>
+      <c r="L176" t="s">
+        <v>952</v>
+      </c>
+      <c r="M176" t="s">
+        <v>952</v>
+      </c>
+      <c r="N176" t="s">
+        <v>952</v>
+      </c>
+      <c r="O176" t="s">
+        <v>952</v>
+      </c>
+      <c r="P176" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E177" t="s">
         <v>1026</v>
       </c>
-      <c r="F176" t="s">
-        <v>937</v>
-      </c>
-      <c r="G176" t="s">
-        <v>937</v>
-      </c>
-      <c r="H176" t="s">
-        <v>952</v>
-      </c>
-      <c r="I176" t="s">
-        <v>952</v>
-      </c>
-      <c r="J176" t="s">
-        <v>952</v>
-      </c>
-      <c r="K176" t="s">
-        <v>952</v>
-      </c>
-      <c r="L176" t="s">
-        <v>952</v>
-      </c>
-      <c r="M176" t="s">
-        <v>952</v>
-      </c>
-      <c r="N176" t="s">
-        <v>952</v>
-      </c>
-      <c r="O176" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A177" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E177" t="s">
-        <v>202</v>
-      </c>
       <c r="F177" t="s">
         <v>937</v>
       </c>
@@ -14704,23 +14685,20 @@
       </c>
       <c r="O177" t="s">
         <v>952</v>
-      </c>
-      <c r="P177" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B178" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C178" t="s">
         <v>1162</v>
       </c>
       <c r="D178" t="s">
-        <v>1160</v>
+        <v>1031</v>
       </c>
       <c r="E178" t="s">
         <v>1026</v>
@@ -14758,10 +14736,10 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B179" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C179" t="s">
         <v>1162</v>
@@ -14805,16 +14783,16 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C180" t="s">
         <v>1162</v>
       </c>
       <c r="D180" t="s">
-        <v>1031</v>
+        <v>1160</v>
       </c>
       <c r="E180" t="s">
         <v>1026</v>
@@ -14852,10 +14830,10 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C181" t="s">
         <v>1162</v>
@@ -14899,10 +14877,10 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B182" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C182" t="s">
         <v>1162</v>
@@ -14946,10 +14924,10 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C183" t="s">
         <v>1162</v>
@@ -14992,11 +14970,11 @@
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>321</v>
-      </c>
-      <c r="B184" t="s">
-        <v>322</v>
+      <c r="A184" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="C184" t="s">
         <v>1162</v>
@@ -15014,39 +14992,42 @@
         <v>937</v>
       </c>
       <c r="H184" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="I184" t="s">
-        <v>952</v>
-      </c>
-      <c r="J184" t="s">
-        <v>952</v>
-      </c>
-      <c r="K184" t="s">
-        <v>952</v>
-      </c>
-      <c r="L184" t="s">
+        <v>975</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="L184" s="5" t="s">
         <v>952</v>
       </c>
       <c r="M184" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="N184" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="O184" t="s">
-        <v>952</v>
+        <v>975</v>
+      </c>
+      <c r="P184" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A185" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>470</v>
+      <c r="A185" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="C185" t="s">
-        <v>1162</v>
+        <v>1311</v>
       </c>
       <c r="D185" t="s">
         <v>1160</v>
@@ -15061,42 +15042,42 @@
         <v>937</v>
       </c>
       <c r="H185" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="I185" t="s">
-        <v>975</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="L185" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="M185" t="s">
-        <v>975</v>
-      </c>
-      <c r="N185" t="s">
-        <v>975</v>
-      </c>
-      <c r="O185" t="s">
-        <v>975</v>
+        <v>1277</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="P185" t="s">
-        <v>1198</v>
+        <v>870</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="C186" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D186" t="s">
         <v>1160</v>
@@ -15111,19 +15092,19 @@
         <v>937</v>
       </c>
       <c r="H186" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I186" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J186" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K186" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L186" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>952</v>
@@ -15140,13 +15121,13 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C187" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D187" t="s">
         <v>1160</v>
@@ -15161,19 +15142,19 @@
         <v>937</v>
       </c>
       <c r="H187" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I187" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J187" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K187" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L187" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>952</v>
@@ -15189,17 +15170,17 @@
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A188" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>917</v>
+      <c r="A188" t="s">
+        <v>323</v>
+      </c>
+      <c r="B188" t="s">
+        <v>324</v>
       </c>
       <c r="C188" t="s">
-        <v>1313</v>
+        <v>1031</v>
       </c>
       <c r="D188" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="E188" t="s">
         <v>1026</v>
@@ -15211,39 +15192,36 @@
         <v>937</v>
       </c>
       <c r="H188" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I188" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="J188" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="K188" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="L188" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M188" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="O188" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="P188" t="s">
-        <v>870</v>
+        <v>952</v>
+      </c>
+      <c r="M188" t="s">
+        <v>952</v>
+      </c>
+      <c r="N188" t="s">
+        <v>952</v>
+      </c>
+      <c r="O188" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B189" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C189" t="s">
         <v>1031</v>
@@ -15287,16 +15265,16 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B190" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C190" t="s">
         <v>1031</v>
       </c>
       <c r="D190" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E190" t="s">
         <v>1026</v>
@@ -15334,10 +15312,10 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C191" t="s">
         <v>1031</v>
@@ -15381,10 +15359,10 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C192" t="s">
         <v>1031</v>
@@ -15427,17 +15405,17 @@
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
-        <v>331</v>
-      </c>
-      <c r="B193" t="s">
-        <v>332</v>
+      <c r="A193" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>929</v>
       </c>
       <c r="C193" t="s">
         <v>1031</v>
       </c>
       <c r="D193" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E193" t="s">
         <v>1026</v>
@@ -15472,19 +15450,22 @@
       <c r="O193" t="s">
         <v>952</v>
       </c>
+      <c r="P193" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A194" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>929</v>
+      <c r="A194" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" t="s">
+        <v>334</v>
       </c>
       <c r="C194" t="s">
         <v>1031</v>
       </c>
       <c r="D194" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E194" t="s">
         <v>1026</v>
@@ -15519,16 +15500,13 @@
       <c r="O194" t="s">
         <v>952</v>
       </c>
-      <c r="P194" t="s">
-        <v>1314</v>
-      </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B195" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C195" t="s">
         <v>1031</v>
@@ -15572,16 +15550,16 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B196" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C196" t="s">
         <v>1031</v>
       </c>
       <c r="D196" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="E196" t="s">
         <v>1026</v>
@@ -15619,16 +15597,16 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C197" t="s">
         <v>1031</v>
       </c>
       <c r="D197" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E197" t="s">
         <v>1026</v>
@@ -15666,10 +15644,10 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B198" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C198" t="s">
         <v>1031</v>
@@ -15712,17 +15690,17 @@
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
-        <v>341</v>
-      </c>
-      <c r="B199" t="s">
-        <v>342</v>
+      <c r="A199" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>913</v>
       </c>
       <c r="C199" t="s">
         <v>1031</v>
       </c>
       <c r="D199" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E199" t="s">
         <v>1026</v>
@@ -15757,16 +15735,19 @@
       <c r="O199" t="s">
         <v>952</v>
       </c>
+      <c r="P199" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" s="9" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C200" t="s">
-        <v>1031</v>
+        <v>1311</v>
       </c>
       <c r="D200" t="s">
         <v>1177</v>
@@ -15805,24 +15786,24 @@
         <v>952</v>
       </c>
       <c r="P200" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A201" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>911</v>
+      <c r="A201" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="C201" t="s">
-        <v>1313</v>
+        <v>1275</v>
       </c>
       <c r="D201" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="E201" t="s">
-        <v>1026</v>
+        <v>1285</v>
       </c>
       <c r="F201" t="s">
         <v>937</v>
@@ -15831,48 +15812,48 @@
         <v>937</v>
       </c>
       <c r="H201" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="I201" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="J201" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="K201" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="L201" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="M201" t="s">
-        <v>952</v>
-      </c>
-      <c r="N201" t="s">
-        <v>952</v>
-      </c>
-      <c r="O201" t="s">
-        <v>952</v>
+        <v>1277</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>1278</v>
       </c>
       <c r="P201" t="s">
-        <v>1316</v>
+        <v>950</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C202" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D202" t="s">
         <v>1160</v>
       </c>
       <c r="E202" t="s">
-        <v>1287</v>
+        <v>1026</v>
       </c>
       <c r="F202" t="s">
         <v>937</v>
@@ -15881,42 +15862,42 @@
         <v>937</v>
       </c>
       <c r="H202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="P202" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A203" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>921</v>
+      <c r="A203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B203" t="s">
+        <v>350</v>
       </c>
       <c r="C203" t="s">
-        <v>1277</v>
+        <v>1031</v>
       </c>
       <c r="D203" t="s">
         <v>1160</v>
@@ -15931,39 +15912,36 @@
         <v>937</v>
       </c>
       <c r="H203" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I203" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="J203" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="K203" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="L203" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="M203" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N203" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O203" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P203" t="s">
-        <v>950</v>
+        <v>952</v>
+      </c>
+      <c r="N203" t="s">
+        <v>952</v>
+      </c>
+      <c r="O203" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B204" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C204" t="s">
         <v>1031</v>
@@ -16007,10 +15985,10 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B205" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C205" t="s">
         <v>1031</v>
@@ -16054,10 +16032,10 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B206" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C206" t="s">
         <v>1031</v>
@@ -16101,10 +16079,10 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C207" t="s">
         <v>1031</v>
@@ -16148,10 +16126,10 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C208" t="s">
         <v>1031</v>
@@ -16195,10 +16173,10 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B209" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C209" t="s">
         <v>1031</v>
@@ -16242,10 +16220,10 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C210" t="s">
         <v>1031</v>
@@ -16289,10 +16267,10 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C211" t="s">
         <v>1031</v>
@@ -16336,10 +16314,10 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C212" t="s">
         <v>1031</v>
@@ -16382,14 +16360,14 @@
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A213" t="s">
-        <v>367</v>
-      </c>
-      <c r="B213" t="s">
-        <v>368</v>
+      <c r="A213" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="C213" t="s">
-        <v>1031</v>
+        <v>1275</v>
       </c>
       <c r="D213" t="s">
         <v>1160</v>
@@ -16404,39 +16382,42 @@
         <v>937</v>
       </c>
       <c r="H213" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="I213" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="J213" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="K213" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="L213" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="M213" t="s">
-        <v>952</v>
-      </c>
-      <c r="N213" t="s">
-        <v>952</v>
-      </c>
-      <c r="O213" t="s">
-        <v>952</v>
+        <v>1277</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P213" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C214" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D214" t="s">
         <v>1160</v>
@@ -16451,42 +16432,42 @@
         <v>937</v>
       </c>
       <c r="H214" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I214" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J214" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K214" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L214" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M214" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="P214" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A215" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>498</v>
+      <c r="A215" t="s">
+        <v>369</v>
+      </c>
+      <c r="B215" t="s">
+        <v>370</v>
       </c>
       <c r="C215" t="s">
-        <v>1277</v>
+        <v>1031</v>
       </c>
       <c r="D215" t="s">
         <v>1160</v>
@@ -16501,39 +16482,36 @@
         <v>937</v>
       </c>
       <c r="H215" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I215" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="J215" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="K215" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="L215" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="M215" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N215" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P215" t="s">
-        <v>950</v>
+        <v>952</v>
+      </c>
+      <c r="N215" t="s">
+        <v>952</v>
+      </c>
+      <c r="O215" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B216" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C216" t="s">
         <v>1031</v>
@@ -16577,10 +16555,10 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B217" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C217" t="s">
         <v>1031</v>
@@ -16624,10 +16602,10 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C218" t="s">
         <v>1031</v>
@@ -16670,11 +16648,11 @@
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
-        <v>375</v>
-      </c>
-      <c r="B219" t="s">
-        <v>376</v>
+      <c r="A219" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>503</v>
       </c>
       <c r="C219" t="s">
         <v>1031</v>
@@ -16715,16 +16693,19 @@
       <c r="O219" t="s">
         <v>952</v>
       </c>
+      <c r="P219" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A220" s="9" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>503</v>
+      <c r="A220" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1287</v>
       </c>
       <c r="C220" t="s">
-        <v>1031</v>
+        <v>1275</v>
       </c>
       <c r="D220" t="s">
         <v>1160</v>
@@ -16739,42 +16720,42 @@
         <v>937</v>
       </c>
       <c r="H220" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="I220" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="J220" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="K220" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="L220" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="M220" t="s">
-        <v>952</v>
-      </c>
-      <c r="N220" t="s">
-        <v>952</v>
-      </c>
-      <c r="O220" t="s">
-        <v>952</v>
+        <v>1277</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>1278</v>
       </c>
       <c r="P220" t="s">
-        <v>1314</v>
+        <v>950</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A221" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>1289</v>
+      <c r="A221" t="s">
+        <v>377</v>
+      </c>
+      <c r="B221" t="s">
+        <v>378</v>
       </c>
       <c r="C221" t="s">
-        <v>1277</v>
+        <v>1031</v>
       </c>
       <c r="D221" t="s">
         <v>1160</v>
@@ -16789,39 +16770,36 @@
         <v>937</v>
       </c>
       <c r="H221" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I221" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="J221" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="K221" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="L221" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="M221" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N221" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O221" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P221" t="s">
-        <v>950</v>
+        <v>952</v>
+      </c>
+      <c r="N221" t="s">
+        <v>952</v>
+      </c>
+      <c r="O221" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B222" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C222" t="s">
         <v>1031</v>
@@ -16865,10 +16843,10 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B223" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C223" t="s">
         <v>1031</v>
@@ -16912,10 +16890,10 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B224" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C224" t="s">
         <v>1031</v>
@@ -16959,10 +16937,10 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B225" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C225" t="s">
         <v>1031</v>
@@ -17005,14 +16983,14 @@
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
-        <v>385</v>
-      </c>
-      <c r="B226" t="s">
-        <v>386</v>
+      <c r="A226" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="C226" t="s">
-        <v>1031</v>
+        <v>1275</v>
       </c>
       <c r="D226" t="s">
         <v>1160</v>
@@ -17027,39 +17005,42 @@
         <v>937</v>
       </c>
       <c r="H226" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="I226" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="J226" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="K226" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="L226" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="M226" t="s">
-        <v>952</v>
-      </c>
-      <c r="N226" t="s">
-        <v>952</v>
-      </c>
-      <c r="O226" t="s">
-        <v>952</v>
+        <v>1277</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P226" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A227" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>499</v>
+      <c r="A227" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" t="s">
+        <v>388</v>
       </c>
       <c r="C227" t="s">
-        <v>1277</v>
+        <v>1031</v>
       </c>
       <c r="D227" t="s">
         <v>1160</v>
@@ -17074,39 +17055,36 @@
         <v>937</v>
       </c>
       <c r="H227" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I227" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="J227" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="K227" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="L227" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="M227" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N227" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O227" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P227" t="s">
-        <v>950</v>
+        <v>952</v>
+      </c>
+      <c r="N227" t="s">
+        <v>952</v>
+      </c>
+      <c r="O227" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B228" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C228" t="s">
         <v>1031</v>
@@ -17149,14 +17127,14 @@
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>389</v>
-      </c>
-      <c r="B229" t="s">
-        <v>390</v>
+      <c r="A229" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1290</v>
       </c>
       <c r="C229" t="s">
-        <v>1031</v>
+        <v>1275</v>
       </c>
       <c r="D229" t="s">
         <v>1160</v>
@@ -17171,39 +17149,42 @@
         <v>937</v>
       </c>
       <c r="H229" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="I229" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="J229" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="K229" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="L229" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="M229" t="s">
-        <v>952</v>
-      </c>
-      <c r="N229" t="s">
-        <v>952</v>
-      </c>
-      <c r="O229" t="s">
-        <v>952</v>
+        <v>1277</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P229" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C230" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D230" t="s">
         <v>1160</v>
@@ -17218,42 +17199,42 @@
         <v>937</v>
       </c>
       <c r="H230" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I230" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J230" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K230" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L230" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M230" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="P230" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A231" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>1293</v>
+      <c r="A231" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" t="s">
+        <v>392</v>
       </c>
       <c r="C231" t="s">
-        <v>1277</v>
+        <v>1031</v>
       </c>
       <c r="D231" t="s">
         <v>1160</v>
@@ -17268,39 +17249,36 @@
         <v>937</v>
       </c>
       <c r="H231" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I231" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="J231" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="K231" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="L231" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="M231" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N231" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O231" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P231" t="s">
-        <v>950</v>
+        <v>952</v>
+      </c>
+      <c r="N231" t="s">
+        <v>952</v>
+      </c>
+      <c r="O231" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B232" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C232" t="s">
         <v>1031</v>
@@ -17344,16 +17322,16 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B233" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C233" t="s">
         <v>1031</v>
       </c>
       <c r="D233" t="s">
-        <v>1160</v>
+        <v>1031</v>
       </c>
       <c r="E233" t="s">
         <v>1026</v>
@@ -17391,16 +17369,16 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B234" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C234" t="s">
         <v>1031</v>
       </c>
       <c r="D234" t="s">
-        <v>1031</v>
+        <v>1160</v>
       </c>
       <c r="E234" t="s">
         <v>1026</v>
@@ -17438,10 +17416,10 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B235" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C235" t="s">
         <v>1031</v>
@@ -17485,10 +17463,10 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B236" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C236" t="s">
         <v>1031</v>
@@ -17532,16 +17510,16 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B237" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C237" t="s">
         <v>1031</v>
       </c>
       <c r="D237" t="s">
-        <v>1160</v>
+        <v>1031</v>
       </c>
       <c r="E237" t="s">
         <v>1026</v>
@@ -17579,16 +17557,16 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B238" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C238" t="s">
         <v>1031</v>
       </c>
       <c r="D238" t="s">
-        <v>1031</v>
+        <v>1160</v>
       </c>
       <c r="E238" t="s">
         <v>1026</v>
@@ -17626,10 +17604,10 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B239" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C239" t="s">
         <v>1031</v>
@@ -17673,10 +17651,10 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B240" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C240" t="s">
         <v>1031</v>
@@ -17720,10 +17698,10 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B241" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C241" t="s">
         <v>1031</v>
@@ -17767,10 +17745,10 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B242" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C242" t="s">
         <v>1031</v>
@@ -17814,10 +17792,10 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B243" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C243" t="s">
         <v>1031</v>
@@ -17861,16 +17839,16 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B244" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C244" t="s">
         <v>1031</v>
       </c>
       <c r="D244" t="s">
-        <v>1160</v>
+        <v>1031</v>
       </c>
       <c r="E244" t="s">
         <v>1026</v>
@@ -17908,10 +17886,10 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B245" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C245" t="s">
         <v>1031</v>
@@ -17955,10 +17933,10 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B246" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C246" t="s">
         <v>1031</v>
@@ -18002,10 +17980,10 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B247" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C247" t="s">
         <v>1031</v>
@@ -18049,16 +18027,16 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B248" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C248" t="s">
         <v>1031</v>
       </c>
       <c r="D248" t="s">
-        <v>1031</v>
+        <v>1160</v>
       </c>
       <c r="E248" t="s">
         <v>1026</v>
@@ -18096,16 +18074,16 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="B249" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="C249" t="s">
         <v>1031</v>
       </c>
       <c r="D249" t="s">
-        <v>1160</v>
+        <v>1031</v>
       </c>
       <c r="E249" t="s">
         <v>1026</v>
@@ -18143,10 +18121,10 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C250" t="s">
         <v>1031</v>
@@ -18190,10 +18168,10 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B251" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C251" t="s">
         <v>1031</v>
@@ -18237,16 +18215,16 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="B252" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="C252" t="s">
-        <v>1031</v>
+        <v>1109</v>
       </c>
       <c r="D252" t="s">
-        <v>1031</v>
+        <v>937</v>
       </c>
       <c r="E252" t="s">
         <v>1026</v>
@@ -18284,16 +18262,16 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B253" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C253" t="s">
         <v>1109</v>
       </c>
       <c r="D253" t="s">
-        <v>937</v>
+        <v>1075</v>
       </c>
       <c r="E253" t="s">
         <v>1026</v>
@@ -18331,16 +18309,16 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B254" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C254" t="s">
-        <v>1109</v>
+        <v>44</v>
       </c>
       <c r="D254" t="s">
-        <v>1075</v>
+        <v>1185</v>
       </c>
       <c r="E254" t="s">
         <v>1026</v>
@@ -18378,16 +18356,16 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B255" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C255" t="s">
         <v>44</v>
       </c>
       <c r="D255" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E255" t="s">
         <v>1026</v>
@@ -18425,16 +18403,16 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B256" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C256" t="s">
-        <v>44</v>
+        <v>1186</v>
       </c>
       <c r="D256" t="s">
-        <v>1187</v>
+        <v>937</v>
       </c>
       <c r="E256" t="s">
         <v>1026</v>
@@ -18472,16 +18450,16 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B257" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C257" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D257" t="s">
-        <v>937</v>
+        <v>1189</v>
       </c>
       <c r="E257" t="s">
         <v>1026</v>
@@ -18519,67 +18497,67 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>437</v>
+        <v>114</v>
       </c>
       <c r="B258" t="s">
-        <v>438</v>
+        <v>115</v>
       </c>
       <c r="C258" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D258" t="s">
-        <v>1191</v>
+        <v>1035</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E258" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F258" t="s">
+        <v>937</v>
+      </c>
+      <c r="G258" t="s">
+        <v>937</v>
+      </c>
+      <c r="H258" t="s">
+        <v>952</v>
+      </c>
+      <c r="I258" t="s">
+        <v>952</v>
+      </c>
+      <c r="J258" t="s">
+        <v>952</v>
+      </c>
+      <c r="K258" t="s">
+        <v>952</v>
+      </c>
+      <c r="L258" t="s">
+        <v>952</v>
+      </c>
+      <c r="M258" t="s">
+        <v>952</v>
+      </c>
+      <c r="N258" t="s">
+        <v>952</v>
+      </c>
+      <c r="O258" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A259" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D259" t="s">
+        <v>937</v>
+      </c>
+      <c r="E259" t="s">
         <v>1026</v>
       </c>
-      <c r="F258" t="s">
-        <v>937</v>
-      </c>
-      <c r="G258" t="s">
-        <v>937</v>
-      </c>
-      <c r="H258" t="s">
-        <v>952</v>
-      </c>
-      <c r="I258" t="s">
-        <v>952</v>
-      </c>
-      <c r="J258" t="s">
-        <v>952</v>
-      </c>
-      <c r="K258" t="s">
-        <v>952</v>
-      </c>
-      <c r="L258" t="s">
-        <v>952</v>
-      </c>
-      <c r="M258" t="s">
-        <v>952</v>
-      </c>
-      <c r="N258" t="s">
-        <v>952</v>
-      </c>
-      <c r="O258" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
-        <v>114</v>
-      </c>
-      <c r="B259" t="s">
-        <v>115</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E259" t="s">
-        <v>1028</v>
-      </c>
       <c r="F259" t="s">
         <v>937</v>
       </c>
@@ -18587,42 +18565,45 @@
         <v>937</v>
       </c>
       <c r="H259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="I259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="J259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="K259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="L259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="M259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="N259" t="s">
-        <v>952</v>
+        <v>1278</v>
       </c>
       <c r="O259" t="s">
-        <v>952</v>
+        <v>1278</v>
+      </c>
+      <c r="P259" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
-        <v>233</v>
+        <v>445</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>234</v>
+        <v>446</v>
       </c>
       <c r="C260" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="D260" t="s">
-        <v>937</v>
+        <v>1308</v>
       </c>
       <c r="E260" t="s">
         <v>1026</v>
@@ -18634,45 +18615,45 @@
         <v>937</v>
       </c>
       <c r="H260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="I260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="J260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="K260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="L260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="M260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="N260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="O260" t="s">
-        <v>1280</v>
+        <v>952</v>
       </c>
       <c r="P260" t="s">
-        <v>1120</v>
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A261" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>446</v>
+      <c r="A261" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="C261" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1310</v>
+        <v>44</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>838</v>
       </c>
       <c r="E261" t="s">
         <v>1026</v>
@@ -18684,48 +18665,48 @@
         <v>937</v>
       </c>
       <c r="H261" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="I261" t="s">
-        <v>952</v>
-      </c>
-      <c r="J261" t="s">
-        <v>952</v>
-      </c>
-      <c r="K261" t="s">
-        <v>952</v>
-      </c>
-      <c r="L261" t="s">
-        <v>952</v>
+        <v>1277</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>1278</v>
       </c>
       <c r="M261" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="N261" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="O261" t="s">
-        <v>952</v>
+        <v>1277</v>
       </c>
       <c r="P261" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A262" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>493</v>
+      <c r="A262" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C262" t="s">
-        <v>44</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>838</v>
+        <v>962</v>
+      </c>
+      <c r="D262" t="s">
+        <v>956</v>
       </c>
       <c r="E262" t="s">
-        <v>1026</v>
+        <v>937</v>
       </c>
       <c r="F262" t="s">
         <v>937</v>
@@ -18734,39 +18715,39 @@
         <v>937</v>
       </c>
       <c r="H262" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="I262" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J262" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K262" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="L262" s="5" t="s">
-        <v>1280</v>
+        <v>952</v>
+      </c>
+      <c r="J262" t="s">
+        <v>952</v>
+      </c>
+      <c r="K262" t="s">
+        <v>952</v>
+      </c>
+      <c r="L262" t="s">
+        <v>952</v>
       </c>
       <c r="M262" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="N262" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="O262" t="s">
-        <v>1279</v>
+        <v>952</v>
       </c>
       <c r="P262" t="s">
-        <v>468</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C263" t="s">
         <v>962</v>
@@ -18813,10 +18794,10 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C264" t="s">
         <v>962</v>
@@ -18863,10 +18844,10 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C265" t="s">
         <v>962</v>
@@ -18913,10 +18894,10 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A266" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C266" t="s">
         <v>962</v>
@@ -18963,10 +18944,10 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A267" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C267" t="s">
         <v>962</v>
@@ -19013,10 +18994,10 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C268" t="s">
         <v>962</v>
@@ -19063,10 +19044,10 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A269" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C269" t="s">
         <v>962</v>
@@ -19113,10 +19094,10 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C270" t="s">
         <v>962</v>
@@ -19163,10 +19144,10 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C271" t="s">
         <v>962</v>
@@ -19212,17 +19193,17 @@
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A272" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>35</v>
+      <c r="A272" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="C272" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D272" t="s">
-        <v>956</v>
+        <v>604</v>
       </c>
       <c r="E272" t="s">
         <v>937</v>
@@ -19231,48 +19212,48 @@
         <v>937</v>
       </c>
       <c r="G272" t="s">
-        <v>937</v>
+        <v>1255</v>
       </c>
       <c r="H272" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="I272" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="J272" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="K272" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="L272" t="s">
-        <v>952</v>
-      </c>
-      <c r="M272" t="s">
-        <v>952</v>
-      </c>
-      <c r="N272" t="s">
-        <v>952</v>
-      </c>
-      <c r="O272" t="s">
+        <v>975</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="O272" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P272" t="s">
-        <v>1120</v>
+        <v>753</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="C273" t="s">
         <v>963</v>
       </c>
       <c r="D273" t="s">
-        <v>604</v>
+        <v>776</v>
       </c>
       <c r="E273" t="s">
         <v>937</v>
@@ -19281,7 +19262,7 @@
         <v>937</v>
       </c>
       <c r="G273" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H273" t="s">
         <v>975</v>
@@ -19313,25 +19294,25 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>878</v>
+        <v>927</v>
       </c>
       <c r="C274" t="s">
-        <v>963</v>
+        <v>1268</v>
       </c>
       <c r="D274" t="s">
-        <v>776</v>
+        <v>1265</v>
       </c>
       <c r="E274" t="s">
-        <v>937</v>
+        <v>1266</v>
       </c>
       <c r="F274" t="s">
-        <v>937</v>
+        <v>1267</v>
       </c>
       <c r="G274" t="s">
-        <v>1260</v>
+        <v>937</v>
       </c>
       <c r="H274" t="s">
         <v>975</v>
@@ -19363,22 +19344,22 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="C275" t="s">
-        <v>1270</v>
+        <v>906</v>
       </c>
       <c r="D275" t="s">
-        <v>1267</v>
+        <v>1248</v>
       </c>
       <c r="E275" t="s">
-        <v>1268</v>
+        <v>1249</v>
       </c>
       <c r="F275" t="s">
-        <v>1269</v>
+        <v>1251</v>
       </c>
       <c r="G275" t="s">
         <v>937</v>
@@ -19413,22 +19394,22 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>905</v>
+        <v>875</v>
       </c>
       <c r="C276" t="s">
         <v>906</v>
       </c>
       <c r="D276" t="s">
-        <v>1250</v>
+        <v>937</v>
       </c>
       <c r="E276" t="s">
-        <v>1251</v>
+        <v>937</v>
       </c>
       <c r="F276" t="s">
-        <v>1253</v>
+        <v>937</v>
       </c>
       <c r="G276" t="s">
         <v>937</v>
@@ -19463,25 +19444,25 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C277" t="s">
-        <v>906</v>
+        <v>963</v>
       </c>
       <c r="D277" t="s">
-        <v>937</v>
+        <v>604</v>
       </c>
       <c r="E277" t="s">
-        <v>937</v>
+        <v>1249</v>
       </c>
       <c r="F277" t="s">
         <v>937</v>
       </c>
       <c r="G277" t="s">
-        <v>937</v>
+        <v>604</v>
       </c>
       <c r="H277" t="s">
         <v>975</v>
@@ -19513,25 +19494,25 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="C278" t="s">
-        <v>963</v>
+        <v>1245</v>
       </c>
       <c r="D278" t="s">
-        <v>604</v>
+        <v>776</v>
       </c>
       <c r="E278" t="s">
-        <v>1251</v>
+        <v>937</v>
       </c>
       <c r="F278" t="s">
         <v>937</v>
       </c>
-      <c r="G278" t="s">
-        <v>604</v>
+      <c r="G278" s="2" t="s">
+        <v>1010</v>
       </c>
       <c r="H278" t="s">
         <v>975</v>
@@ -19563,19 +19544,19 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C279" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D279" t="s">
-        <v>776</v>
+        <v>1259</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>1010</v>
       </c>
       <c r="E279" t="s">
-        <v>937</v>
+        <v>1258</v>
       </c>
       <c r="F279" t="s">
         <v>937</v>
@@ -19613,19 +19594,19 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C280" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>1010</v>
+        <v>1245</v>
+      </c>
+      <c r="D280" t="s">
+        <v>776</v>
       </c>
       <c r="E280" t="s">
-        <v>1260</v>
+        <v>937</v>
       </c>
       <c r="F280" t="s">
         <v>937</v>
@@ -19663,25 +19644,25 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="C281" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D281" t="s">
-        <v>776</v>
+        <v>44</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>1008</v>
       </c>
       <c r="E281" t="s">
-        <v>937</v>
+        <v>807</v>
       </c>
       <c r="F281" t="s">
-        <v>937</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>1010</v>
+        <v>1256</v>
+      </c>
+      <c r="G281" t="s">
+        <v>937</v>
       </c>
       <c r="H281" t="s">
         <v>975</v>
@@ -19708,15 +19689,15 @@
         <v>952</v>
       </c>
       <c r="P281" t="s">
-        <v>753</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C282" t="s">
         <v>44</v>
@@ -19725,10 +19706,10 @@
         <v>1008</v>
       </c>
       <c r="E282" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F282" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G282" t="s">
         <v>937</v>
@@ -19746,7 +19727,7 @@
         <v>975</v>
       </c>
       <c r="L282" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>952</v>
@@ -19758,30 +19739,30 @@
         <v>952</v>
       </c>
       <c r="P282" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="C283" t="s">
-        <v>44</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>1008</v>
+        <v>906</v>
+      </c>
+      <c r="D283" t="s">
+        <v>604</v>
       </c>
       <c r="E283" t="s">
-        <v>808</v>
+        <v>1249</v>
       </c>
       <c r="F283" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G283" t="s">
-        <v>937</v>
+        <v>604</v>
       </c>
       <c r="H283" t="s">
         <v>975</v>
@@ -19796,7 +19777,7 @@
         <v>975</v>
       </c>
       <c r="L283" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>952</v>
@@ -19807,31 +19788,31 @@
       <c r="O283" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P283" t="s">
-        <v>1197</v>
+      <c r="P283" s="8" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C284" t="s">
-        <v>906</v>
+        <v>1245</v>
       </c>
       <c r="D284" t="s">
-        <v>604</v>
+        <v>937</v>
       </c>
       <c r="E284" t="s">
-        <v>1251</v>
+        <v>1026</v>
       </c>
       <c r="F284" t="s">
-        <v>1255</v>
+        <v>937</v>
       </c>
       <c r="G284" t="s">
-        <v>604</v>
+        <v>937</v>
       </c>
       <c r="H284" t="s">
         <v>975</v>
@@ -19857,31 +19838,31 @@
       <c r="O284" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P284" s="8" t="s">
-        <v>1254</v>
+      <c r="P284" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="C285" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D285" t="s">
-        <v>937</v>
+        <v>1260</v>
       </c>
       <c r="E285" t="s">
-        <v>1026</v>
+        <v>937</v>
       </c>
       <c r="F285" t="s">
         <v>937</v>
       </c>
-      <c r="G285" t="s">
-        <v>937</v>
+      <c r="G285" s="2" t="s">
+        <v>1006</v>
       </c>
       <c r="H285" t="s">
         <v>975</v>
@@ -19913,16 +19894,16 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C286" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D286" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E286" t="s">
         <v>937</v>
@@ -19963,25 +19944,25 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>898</v>
+        <v>502</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>883</v>
+        <v>504</v>
       </c>
       <c r="C287" t="s">
-        <v>1247</v>
+        <v>1109</v>
       </c>
       <c r="D287" t="s">
-        <v>1262</v>
+        <v>937</v>
       </c>
       <c r="E287" t="s">
-        <v>937</v>
+        <v>1026</v>
       </c>
       <c r="F287" t="s">
         <v>937</v>
       </c>
-      <c r="G287" s="2" t="s">
-        <v>1006</v>
+      <c r="G287" t="s">
+        <v>937</v>
       </c>
       <c r="H287" t="s">
         <v>975</v>
@@ -20013,10 +19994,10 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C288" t="s">
         <v>1109</v>
@@ -20063,13 +20044,13 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="C289" t="s">
-        <v>1109</v>
+        <v>784</v>
       </c>
       <c r="D289" t="s">
         <v>937</v>
@@ -20113,13 +20094,13 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>441</v>
+        <v>231</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="C290" t="s">
-        <v>784</v>
+        <v>1123</v>
       </c>
       <c r="D290" t="s">
         <v>937</v>
@@ -20128,7 +20109,7 @@
         <v>1026</v>
       </c>
       <c r="F290" t="s">
-        <v>937</v>
+        <v>1255</v>
       </c>
       <c r="G290" t="s">
         <v>937</v>
@@ -20158,45 +20139,45 @@
         <v>952</v>
       </c>
       <c r="P290" t="s">
-        <v>753</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>231</v>
+        <v>884</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>232</v>
+        <v>910</v>
       </c>
       <c r="C291" t="s">
-        <v>1123</v>
+        <v>1275</v>
       </c>
       <c r="D291" t="s">
-        <v>937</v>
+        <v>1271</v>
       </c>
       <c r="E291" t="s">
         <v>1026</v>
       </c>
       <c r="F291" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="G291" t="s">
-        <v>937</v>
+        <v>1272</v>
       </c>
       <c r="H291" t="s">
-        <v>975</v>
+        <v>1276</v>
       </c>
       <c r="I291" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="J291" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="K291" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="L291" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>952</v>
@@ -20207,46 +20188,46 @@
       <c r="O291" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P291" t="s">
-        <v>1271</v>
+      <c r="P291" s="8" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C292" t="s">
-        <v>1277</v>
+        <v>1241</v>
       </c>
       <c r="D292" t="s">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="E292" t="s">
-        <v>1026</v>
+        <v>1240</v>
       </c>
       <c r="F292" t="s">
-        <v>1274</v>
+        <v>1238</v>
       </c>
       <c r="G292" t="s">
-        <v>1274</v>
+        <v>1237</v>
       </c>
       <c r="H292" t="s">
-        <v>1278</v>
+        <v>975</v>
       </c>
       <c r="I292" t="s">
-        <v>1279</v>
+        <v>975</v>
       </c>
       <c r="J292" t="s">
-        <v>1279</v>
+        <v>975</v>
       </c>
       <c r="K292" t="s">
-        <v>1279</v>
+        <v>975</v>
       </c>
       <c r="L292" t="s">
-        <v>1279</v>
+        <v>975</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>952</v>
@@ -20257,31 +20238,31 @@
       <c r="O292" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P292" s="8" t="s">
-        <v>1275</v>
+      <c r="P292" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="C293" t="s">
-        <v>1243</v>
+        <v>962</v>
       </c>
       <c r="D293" t="s">
         <v>1244</v>
       </c>
       <c r="E293" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F293" t="s">
         <v>1240</v>
       </c>
       <c r="G293" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H293" t="s">
         <v>975</v>
@@ -20313,40 +20294,40 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="C294" t="s">
-        <v>962</v>
+        <v>1275</v>
       </c>
       <c r="D294" t="s">
-        <v>1246</v>
+        <v>1279</v>
       </c>
       <c r="E294" t="s">
-        <v>1242</v>
+        <v>1026</v>
       </c>
       <c r="F294" t="s">
-        <v>1242</v>
+        <v>1272</v>
       </c>
       <c r="G294" t="s">
-        <v>1242</v>
+        <v>1272</v>
       </c>
       <c r="H294" t="s">
-        <v>975</v>
+        <v>1276</v>
       </c>
       <c r="I294" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="J294" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="K294" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="L294" t="s">
-        <v>975</v>
+        <v>1277</v>
       </c>
       <c r="M294" s="1" t="s">
         <v>952</v>
@@ -20358,161 +20339,111 @@
         <v>952</v>
       </c>
       <c r="P294" t="s">
-        <v>753</v>
+        <v>877</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A295" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>885</v>
+      <c r="A295" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="C295" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D295" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E295" t="s">
         <v>1026</v>
       </c>
       <c r="F295" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J295" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K295" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L295" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M295" t="s">
+        <v>975</v>
+      </c>
+      <c r="N295" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="O295" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P295" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A296" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C296" t="s">
         <v>1274</v>
       </c>
-      <c r="G295" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H295" t="s">
+      <c r="D296" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N296" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O296" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="I295" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K295" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L295" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M295" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="N295" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="O295" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="P295" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A296" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G296" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H296" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I296" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J296" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L296" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M296" t="s">
-        <v>975</v>
-      </c>
-      <c r="N296" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="O296" s="2" t="s">
-        <v>1280</v>
-      </c>
       <c r="P296" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A297" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D297" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="M297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N297" t="s">
-        <v>1279</v>
-      </c>
-      <c r="O297" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P297" t="s">
         <v>930</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P385"/>
+  <autoFilter ref="A1:P384"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20559,10 +20490,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -20599,10 +20530,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -20647,18 +20578,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B15" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B16" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -20719,15 +20650,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>1202</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1047</v>
@@ -20743,7 +20674,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B27" t="s">
         <v>1069</v>
@@ -20759,7 +20690,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B29" t="s">
         <v>939</v>
@@ -20767,10 +20698,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B30" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -20847,10 +20778,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B40" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -20863,7 +20794,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>1082</v>
@@ -20895,10 +20826,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -20919,10 +20850,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -21055,18 +20986,18 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B66" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -21079,18 +21010,18 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B69" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B70" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -21143,10 +21074,10 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B77" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -21207,18 +21138,18 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B85" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B86" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -21255,10 +21186,10 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B91" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -21287,74 +21218,74 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B95" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B97" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B98" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B99" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B100" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B101" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B102" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B103" t="s">
         <v>1264</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -23239,7 +23170,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28242,47 +28173,47 @@
         <v>952</v>
       </c>
       <c r="F167" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="G167" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H167" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="I167" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>{true,true,true,true,true,false,false,false},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B168" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C168" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D168" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E168" t="s">
-        <v>975</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H168" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F168" t="s">
+        <v>952</v>
+      </c>
+      <c r="G168" t="s">
+        <v>952</v>
+      </c>
+      <c r="H168" t="s">
         <v>952</v>
       </c>
       <c r="I168" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>{false,false,false,false,false,true,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
@@ -28707,32 +28638,32 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B183" t="s">
-        <v>952</v>
-      </c>
-      <c r="C183" t="s">
-        <v>952</v>
-      </c>
-      <c r="D183" t="s">
-        <v>952</v>
-      </c>
-      <c r="E183" t="s">
+        <v>975</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="E183" s="5" t="s">
         <v>952</v>
       </c>
       <c r="F183" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="G183" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="H183" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="I183" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,true,true,true,false,false,false},</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
@@ -28742,27 +28673,27 @@
       <c r="B184" t="s">
         <v>975</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="F184" t="s">
-        <v>975</v>
-      </c>
-      <c r="G184" t="s">
-        <v>975</v>
-      </c>
-      <c r="H184" t="s">
-        <v>975</v>
+      <c r="C184" t="s">
+        <v>975</v>
+      </c>
+      <c r="D184" t="s">
+        <v>975</v>
+      </c>
+      <c r="E184" t="s">
+        <v>975</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="I184" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>{false,false,true,true,true,false,false,false},</v>
+        <v>{false,false,false,false,false,true,true,true},</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
@@ -28827,32 +28758,32 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B187" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C187" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D187" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E187" t="s">
-        <v>975</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H187" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F187" t="s">
+        <v>952</v>
+      </c>
+      <c r="G187" t="s">
+        <v>952</v>
+      </c>
+      <c r="H187" t="s">
         <v>952</v>
       </c>
       <c r="I187" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>{false,false,false,false,false,true,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
@@ -29217,32 +29148,32 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B200" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="C200" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="D200" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="E200" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="F200" t="s">
-        <v>952</v>
-      </c>
-      <c r="G200" t="s">
-        <v>952</v>
-      </c>
-      <c r="H200" t="s">
+        <v>975</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>952</v>
       </c>
       <c r="I200" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,false,false,false,false,true,true},</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
@@ -29277,32 +29208,32 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B202" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C202" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D202" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E202" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F202" t="s">
-        <v>975</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H202" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G202" t="s">
+        <v>952</v>
+      </c>
+      <c r="H202" t="s">
         <v>952</v>
       </c>
       <c r="I202" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{false,false,false,false,false,false,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
@@ -29577,32 +29508,32 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B212" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="C212" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="D212" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="E212" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="F212" t="s">
-        <v>952</v>
-      </c>
-      <c r="G212" t="s">
-        <v>952</v>
-      </c>
-      <c r="H212" t="s">
+        <v>975</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H212" s="2" t="s">
         <v>952</v>
       </c>
       <c r="I212" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,false,false,false,false,true,true},</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
@@ -29637,32 +29568,32 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B214" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C214" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D214" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E214" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F214" t="s">
-        <v>975</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H214" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G214" t="s">
+        <v>952</v>
+      </c>
+      <c r="H214" t="s">
         <v>952</v>
       </c>
       <c r="I214" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{false,false,false,false,false,false,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
@@ -29787,62 +29718,62 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B219" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="C219" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="D219" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="E219" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="F219" t="s">
-        <v>952</v>
-      </c>
-      <c r="G219" t="s">
-        <v>952</v>
-      </c>
-      <c r="H219" t="s">
+        <v>975</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H219" s="2" t="s">
         <v>952</v>
       </c>
       <c r="I219" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,false,false,false,false,true,true},</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B220" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C220" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D220" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E220" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F220" t="s">
-        <v>975</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H220" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G220" t="s">
+        <v>952</v>
+      </c>
+      <c r="H220" t="s">
         <v>952</v>
       </c>
       <c r="I220" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{false,false,false,false,false,false,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
@@ -29967,62 +29898,62 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B225" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="C225" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="D225" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="E225" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="F225" t="s">
-        <v>952</v>
-      </c>
-      <c r="G225" t="s">
-        <v>952</v>
-      </c>
-      <c r="H225" t="s">
+        <v>975</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H225" s="2" t="s">
         <v>952</v>
       </c>
       <c r="I225" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,false,false,false,false,true,true},</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B226" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C226" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D226" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E226" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F226" t="s">
-        <v>975</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H226" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G226" t="s">
+        <v>952</v>
+      </c>
+      <c r="H226" t="s">
         <v>952</v>
       </c>
       <c r="I226" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{false,false,false,false,false,false,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
@@ -30057,32 +29988,32 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B228" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="C228" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="D228" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="E228" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="F228" t="s">
-        <v>952</v>
-      </c>
-      <c r="G228" t="s">
-        <v>952</v>
-      </c>
-      <c r="H228" t="s">
+        <v>975</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>952</v>
       </c>
       <c r="I228" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,false,false,false,false,true,true},</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
@@ -30117,32 +30048,32 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B230" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C230" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="D230" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E230" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F230" t="s">
-        <v>975</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H230" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G230" t="s">
+        <v>952</v>
+      </c>
+      <c r="H230" t="s">
         <v>952</v>
       </c>
       <c r="I230" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>{false,false,false,false,false,false,true,true},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
@@ -30981,7 +30912,7 @@
         <v>952</v>
       </c>
       <c r="I258" s="10" t="str">
-        <f t="shared" ref="I258:I296" si="4">"{"&amp;IF(A258="o","true","false")&amp;","&amp;IF(B258="o","true","false")&amp;","&amp;IF(C258="o","true","false")&amp;","&amp;IF(D258="o","true","false")&amp;","&amp;IF(E258="o","true","false")&amp;","&amp;IF(F258="o","true","false")&amp;","&amp;IF(G258="o","true","false")&amp;","&amp;IF(H258="o","true","false")&amp;"},"</f>
+        <f t="shared" ref="I258:I295" si="4">"{"&amp;IF(A258="o","true","false")&amp;","&amp;IF(B258="o","true","false")&amp;","&amp;IF(C258="o","true","false")&amp;","&amp;IF(D258="o","true","false")&amp;","&amp;IF(E258="o","true","false")&amp;","&amp;IF(F258="o","true","false")&amp;","&amp;IF(G258="o","true","false")&amp;","&amp;IF(H258="o","true","false")&amp;"},"</f>
         <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
@@ -31017,62 +30948,62 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B260" t="s">
-        <v>952</v>
-      </c>
-      <c r="C260" t="s">
-        <v>952</v>
-      </c>
-      <c r="D260" t="s">
-        <v>952</v>
-      </c>
-      <c r="E260" t="s">
+        <v>975</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="E260" s="5" t="s">
         <v>952</v>
       </c>
       <c r="F260" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="G260" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="H260" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="I260" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,true,true,true,false,false,false},</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="B261" t="s">
-        <v>975</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="E261" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C261" t="s">
+        <v>952</v>
+      </c>
+      <c r="D261" t="s">
+        <v>952</v>
+      </c>
+      <c r="E261" t="s">
         <v>952</v>
       </c>
       <c r="F261" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="G261" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H261" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="I261" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>{false,false,true,true,true,false,false,false},</v>
+        <v>{true,true,true,true,true,true,true,true},</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
@@ -31347,32 +31278,32 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B271" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="C271" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="D271" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="E271" t="s">
-        <v>952</v>
-      </c>
-      <c r="F271" t="s">
-        <v>952</v>
-      </c>
-      <c r="G271" t="s">
-        <v>952</v>
-      </c>
-      <c r="H271" t="s">
+        <v>975</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>952</v>
       </c>
       <c r="I271" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>{true,true,true,true,true,true,true,true},</v>
+        <v>{false,false,false,false,false,true,true,true},</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
@@ -32051,18 +31982,18 @@
       <c r="E294" t="s">
         <v>975</v>
       </c>
-      <c r="F294" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H294" s="1" t="s">
+      <c r="F294" t="s">
+        <v>975</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H294" s="2" t="s">
         <v>952</v>
       </c>
       <c r="I294" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>{false,false,false,false,false,true,true,true},</v>
+        <v>{false,false,false,false,false,false,true,true},</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
@@ -32084,43 +32015,13 @@
       <c r="F295" t="s">
         <v>975</v>
       </c>
-      <c r="G295" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H295" s="2" t="s">
+      <c r="G295" t="s">
+        <v>975</v>
+      </c>
+      <c r="H295" s="3" t="s">
         <v>952</v>
       </c>
       <c r="I295" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>{false,false,false,false,false,false,true,true},</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A296" t="s">
-        <v>975</v>
-      </c>
-      <c r="B296" t="s">
-        <v>975</v>
-      </c>
-      <c r="C296" t="s">
-        <v>975</v>
-      </c>
-      <c r="D296" t="s">
-        <v>975</v>
-      </c>
-      <c r="E296" t="s">
-        <v>975</v>
-      </c>
-      <c r="F296" t="s">
-        <v>975</v>
-      </c>
-      <c r="G296" t="s">
-        <v>975</v>
-      </c>
-      <c r="H296" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="I296" s="10" t="str">
         <f t="shared" si="4"/>
         <v>{false,false,false,false,false,false,false,true},</v>
       </c>
